--- a/data/financial_statements/soci/LYB.xlsx
+++ b/data/financial_statements/soci/LYB.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>12250000000</v>
+        <v>12266000000</v>
       </c>
       <c r="C2">
-        <v>14838000000</v>
+        <v>14792000000</v>
       </c>
       <c r="D2">
-        <v>13157000000</v>
+        <v>13121000000</v>
       </c>
       <c r="E2">
-        <v>12830000000</v>
+        <v>12828000000</v>
       </c>
       <c r="F2">
-        <v>12700000000</v>
+        <v>12694000000</v>
       </c>
       <c r="G2">
         <v>11561000000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>-0.0354</v>
+        <v>-0.0337</v>
       </c>
       <c r="C3">
-        <v>0.2835</v>
+        <v>0.2795</v>
       </c>
       <c r="D3">
-        <v>0.4487</v>
+        <v>0.4447</v>
       </c>
       <c r="E3">
-        <v>0.6165</v>
+        <v>0.6162</v>
       </c>
       <c r="F3">
-        <v>0.8743</v>
+        <v>0.8734</v>
       </c>
       <c r="G3">
         <v>1.0846</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>11088000000</v>
+        <v>11038000000</v>
       </c>
       <c r="C4">
-        <v>12267000000</v>
+        <v>12254000000</v>
       </c>
       <c r="D4">
-        <v>11136000000</v>
+        <v>11128000000</v>
       </c>
       <c r="E4">
-        <v>10934000000</v>
+        <v>10915000000</v>
       </c>
       <c r="F4">
-        <v>10109000000</v>
+        <v>10144000000</v>
       </c>
       <c r="G4">
         <v>8676000000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1162000000</v>
+        <v>1228000000</v>
       </c>
       <c r="C5">
-        <v>2571000000</v>
+        <v>2538000000</v>
       </c>
       <c r="D5">
-        <v>2021000000</v>
+        <v>1993000000</v>
       </c>
       <c r="E5">
-        <v>1896000000</v>
+        <v>1913000000</v>
       </c>
       <c r="F5">
-        <v>2591000000</v>
+        <v>2550000000</v>
       </c>
       <c r="G5">
         <v>2885000000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>31000000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>319000000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>812000000</v>
@@ -1477,8 +1588,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D9">
         <v>50000000</v>
@@ -1512,23 +1623,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>70000000</v>
+        <v>7000000</v>
       </c>
       <c r="C10">
-        <v>58000000</v>
+        <v>4000000</v>
       </c>
       <c r="D10">
-        <v>74000000</v>
+        <v>2000000</v>
       </c>
       <c r="E10">
-        <v>153000000</v>
+        <v>1000000</v>
       </c>
       <c r="F10">
-        <v>126000000</v>
+        <v>1000000</v>
       </c>
       <c r="G10">
         <v>130000000</v>
@@ -1634,23 +1745,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-85000000</v>
+        <v>134000000</v>
       </c>
       <c r="C11">
-        <v>-118000000</v>
+        <v>-48000000</v>
       </c>
       <c r="D11">
-        <v>-24000000</v>
+        <v>-17000000</v>
       </c>
       <c r="E11">
-        <v>-45000000</v>
+        <v>930000000</v>
       </c>
       <c r="F11">
-        <v>-33000000</v>
+        <v>-80000000</v>
       </c>
       <c r="G11">
         <v>37000000</v>
@@ -1756,8 +1867,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>727000000</v>
@@ -1878,8 +1989,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>154000000</v>
@@ -2000,8 +2111,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>573000000</v>
@@ -2122,8 +2233,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C15">
         <v>1000000</v>
@@ -2160,8 +2271,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2000000</v>
@@ -2258,23 +2369,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>570000000</v>
       </c>
       <c r="C17">
-        <v>1643000000</v>
+        <v>1636000000</v>
       </c>
       <c r="D17">
-        <v>1318000000</v>
+        <v>1316000000</v>
       </c>
       <c r="E17">
-        <v>724000000</v>
+        <v>722000000</v>
       </c>
       <c r="F17">
-        <v>1760000000</v>
+        <v>1756000000</v>
       </c>
       <c r="G17">
         <v>2058000000</v>
@@ -2380,23 +2491,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="C18">
-        <v>4.98</v>
+        <v>4.97</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="F18">
-        <v>5.25</v>
+        <v>5.26</v>
       </c>
       <c r="G18">
         <v>6.13</v>
@@ -2502,8 +2613,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1.75</v>
@@ -2518,7 +2629,7 @@
         <v>2.18</v>
       </c>
       <c r="F19">
-        <v>5.25</v>
+        <v>5.26</v>
       </c>
       <c r="G19">
         <v>6.13</v>
@@ -2624,8 +2735,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>326000000</v>
@@ -2637,7 +2748,7 @@
         <v>328000000</v>
       </c>
       <c r="E20">
-        <v>334000000</v>
+        <v>332000000</v>
       </c>
       <c r="F20">
         <v>334000000</v>
@@ -2746,8 +2857,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>327000000</v>
@@ -2759,7 +2870,7 @@
         <v>329000000</v>
       </c>
       <c r="E21">
-        <v>334000000</v>
+        <v>332000000</v>
       </c>
       <c r="F21">
         <v>334000000</v>
@@ -2868,23 +2979,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.0949</v>
+        <v>0.1001</v>
       </c>
       <c r="C22">
-        <v>0.1733</v>
+        <v>0.1716</v>
       </c>
       <c r="D22">
-        <v>0.1536</v>
+        <v>0.1519</v>
       </c>
       <c r="E22">
-        <v>0.1478</v>
+        <v>0.1491</v>
       </c>
       <c r="F22">
-        <v>0.204</v>
+        <v>0.2009</v>
       </c>
       <c r="G22">
         <v>0.2495</v>
@@ -2990,23 +3101,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.0663</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="C23">
-        <v>0.1443</v>
+        <v>0.1447</v>
       </c>
       <c r="D23">
-        <v>0.1262</v>
+        <v>0.1266</v>
       </c>
       <c r="E23">
         <v>0.07099999999999999</v>
       </c>
       <c r="F23">
-        <v>0.177</v>
+        <v>0.1771</v>
       </c>
       <c r="G23">
         <v>0.2185</v>
@@ -3112,23 +3223,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.0593</v>
       </c>
       <c r="C24">
-        <v>0.1363</v>
+        <v>0.1368</v>
       </c>
       <c r="D24">
-        <v>0.1244</v>
+        <v>0.1248</v>
       </c>
       <c r="E24">
         <v>0.0675</v>
       </c>
       <c r="F24">
-        <v>0.1744</v>
+        <v>0.1745</v>
       </c>
       <c r="G24">
         <v>0.2217</v>
@@ -3234,23 +3345,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0.0465</v>
       </c>
       <c r="C25">
-        <v>0.1107</v>
+        <v>0.1106</v>
       </c>
       <c r="D25">
-        <v>0.1002</v>
+        <v>0.1003</v>
       </c>
       <c r="E25">
-        <v>0.0564</v>
+        <v>0.0563</v>
       </c>
       <c r="F25">
-        <v>0.1386</v>
+        <v>0.1383</v>
       </c>
       <c r="G25">
         <v>0.178</v>
@@ -3356,23 +3467,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>1133000000</v>
+        <v>1196000000</v>
       </c>
       <c r="C26">
-        <v>2449000000</v>
+        <v>2481000000</v>
       </c>
       <c r="D26">
-        <v>1976000000</v>
+        <v>1944000000</v>
       </c>
       <c r="E26">
-        <v>1302000000</v>
+        <v>1929000000</v>
       </c>
       <c r="F26">
-        <v>2607000000</v>
+        <v>2558000000</v>
       </c>
       <c r="G26">
         <v>2864000000</v>
@@ -3478,8 +3589,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>812000000</v>
@@ -3600,8 +3711,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>573000000</v>
@@ -3722,8 +3833,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>-1000000</v>
@@ -3835,23 +3946,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>572000000</v>
+        <v>573000000</v>
       </c>
       <c r="C30">
-        <v>1644000000</v>
+        <v>1638000000</v>
       </c>
       <c r="D30">
-        <v>1320000000</v>
+        <v>1319000000</v>
       </c>
       <c r="E30">
-        <v>726000000</v>
+        <v>729000000</v>
       </c>
       <c r="F30">
-        <v>1762000000</v>
+        <v>1759000000</v>
       </c>
       <c r="G30">
         <v>2059000000</v>
@@ -3957,8 +4068,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.75</v>
@@ -4079,8 +4190,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.75</v>
@@ -4201,8 +4312,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-0.0031</v>
@@ -4308,8 +4419,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-0.0031</v>
@@ -4415,8 +4526,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1.7546</v>
@@ -4537,8 +4648,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1.7492</v>
@@ -4659,8 +4770,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>327000000</v>
@@ -4781,23 +4892,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.0925</v>
+        <v>0.0975</v>
       </c>
       <c r="C38">
-        <v>0.165</v>
+        <v>0.1677</v>
       </c>
       <c r="D38">
-        <v>0.1502</v>
+        <v>0.1482</v>
       </c>
       <c r="E38">
-        <v>0.1015</v>
+        <v>0.1504</v>
       </c>
       <c r="F38">
-        <v>0.2053</v>
+        <v>0.2015</v>
       </c>
       <c r="G38">
         <v>0.2477</v>
@@ -4903,23 +5014,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>0.1154</v>
+        <v>0.1153</v>
       </c>
       <c r="C39">
-        <v>0.1078</v>
+        <v>0.1081</v>
       </c>
       <c r="D39">
-        <v>0.1142</v>
+        <v>0.1145</v>
       </c>
       <c r="E39">
-        <v>0.24</v>
+        <v>0.2325</v>
       </c>
       <c r="F39">
-        <v>0.1687</v>
+        <v>0.1661</v>
       </c>
       <c r="G39">
         <v>0.1645</v>
